--- a/개인 작업 폴더/윤도균/무기UI시스템_체크리스트.xlsx
+++ b/개인 작업 폴더/윤도균/무기UI시스템_체크리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kga_12\Documents\도균\Yaho\개인 작업 폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C34126F-7FAA-4E68-9CEE-539BBF83ADB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4D3031-93EE-4723-A136-4B10A08D0BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1545" yWindow="0" windowWidth="21960" windowHeight="15375" xr2:uid="{8687DF83-6C1B-4C8C-8902-2A436024105A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,26 @@
   </si>
   <si>
     <t>무기 UI에 선물주기 버튼이  보이는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X 버튼을 누르면 무기 UI가 닫히는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화하기 버튼을 누르면 무기의 에고의 사념(대사)이 바뀌는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조언얻기 버튼을 누르면 무기의 에고의 사념(대사)이 바뀌는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 무기(칼, 망치, 창)에 대해서 상기 테스트 결과가 똑같은가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 UI를 여러 번 열고 닫아도 상기 테스트 결과가 똑같은가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADAC2DE-51F1-4DD0-A0CC-8B7FC8F25F6B}">
   <dimension ref="B1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -936,24 +956,35 @@
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
@@ -969,58 +1000,109 @@
         <v>8</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>4</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F10" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>5</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F11" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>6</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F12" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>7</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F13" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>8</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F14" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>9</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F15" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1029,99 +1111,203 @@
       <c r="B16" s="2">
         <v>10</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F16" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>11</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F17" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>12</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F18" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>13</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F19" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>14</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F20" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>15</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F21" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>16</v>
       </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F22" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>17</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>18</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="C24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>19</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="C25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>20</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>21</v>
       </c>
-      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>22</v>
       </c>
-      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>23</v>
       </c>
-      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
